--- a/src/data/tracking_results/2025_final_betting.xlsx
+++ b/src/data/tracking_results/2025_final_betting.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="template" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Week 2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="2025_w3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="template" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Week 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025_w3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025_w4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -47,7 +48,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill/>
     </fill>
@@ -120,6 +121,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.7999816888943144"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -148,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -188,6 +195,20 @@
     <xf numFmtId="12" fontId="0" fillId="9" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="12" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="12" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="0" fillId="13" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,494 +574,893 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:J100"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22.140625" customWidth="1" min="1" max="1"/>
-    <col width="12.28515625" customWidth="1" style="31" min="2" max="2"/>
-    <col width="14.28515625" customWidth="1" style="25" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="15.28515625" customWidth="1" min="5" max="6"/>
-    <col width="13.28515625" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12.5703125" customWidth="1" min="9" max="9"/>
+    <col width="19.7109375" customWidth="1" style="35" min="1" max="1"/>
+    <col width="22.140625" customWidth="1" min="2" max="2"/>
+    <col width="12.28515625" customWidth="1" style="31" min="3" max="3"/>
+    <col width="14.28515625" customWidth="1" style="25" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="15.28515625" customWidth="1" min="6" max="7"/>
+    <col width="13.28515625" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12.5703125" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="33" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="C1" s="26" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="C1" s="20" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>home_win_prob</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>away_win_prob</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>home_avg_score</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>away_avg_score</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>mean_total</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>mean_spread</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="33" t="inlineStr">
         <is>
           <t>money_line</t>
         </is>
       </c>
     </row>
     <row r="2" customFormat="1" s="3">
-      <c r="B2" s="27" t="n"/>
-      <c r="C2" s="21" t="n"/>
+      <c r="A2" s="34" t="n"/>
+      <c r="C2" s="27" t="n"/>
+      <c r="D2" s="21" t="n"/>
     </row>
     <row r="3" customFormat="1" s="4">
-      <c r="B3" s="28" t="n"/>
-      <c r="C3" s="22" t="n"/>
-      <c r="G3" s="5" t="n"/>
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C3" s="28" t="n"/>
+      <c r="D3" s="22" t="n"/>
       <c r="H3" s="5" t="n"/>
-    </row>
-    <row r="4" customFormat="1" s="13">
-      <c r="A4" s="14" t="n"/>
-      <c r="B4" s="29" t="n"/>
-      <c r="C4" s="23" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="14" t="n"/>
-    </row>
-    <row r="5" customFormat="1" s="11">
-      <c r="B5" s="30" t="n"/>
-      <c r="C5" s="24" t="n"/>
-      <c r="G5" s="12" t="n"/>
-      <c r="H5" s="12" t="n"/>
-    </row>
-    <row r="6" customFormat="1" s="3">
-      <c r="B6" s="27" t="n"/>
-      <c r="C6" s="21" t="n"/>
-    </row>
-    <row r="7" customFormat="1" s="4">
-      <c r="B7" s="28" t="n"/>
-      <c r="C7" s="22" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-    </row>
-    <row r="8" customFormat="1" s="13">
-      <c r="A8" s="14" t="n"/>
-      <c r="B8" s="29" t="n"/>
-      <c r="C8" s="23" t="n"/>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="32" t="n"/>
-    </row>
-    <row r="9" customFormat="1" s="11">
-      <c r="B9" s="30" t="n"/>
-      <c r="C9" s="24" t="n"/>
-      <c r="G9" s="12" t="n"/>
-      <c r="H9" s="12" t="n"/>
-    </row>
-    <row r="10" customFormat="1" s="3">
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="21" t="n"/>
-    </row>
-    <row r="11" customFormat="1" s="4">
-      <c r="B11" s="28" t="n"/>
-      <c r="C11" s="22" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-    </row>
-    <row r="12" customFormat="1" s="13">
-      <c r="A12" s="14" t="n"/>
-      <c r="B12" s="29" t="n"/>
-      <c r="C12" s="23" t="n"/>
-      <c r="G12" s="14" t="n"/>
-      <c r="H12" s="14" t="n"/>
-    </row>
-    <row r="13" customFormat="1" s="11">
-      <c r="B13" s="30" t="n"/>
-      <c r="C13" s="24" t="n"/>
-      <c r="G13" s="12" t="n"/>
-      <c r="H13" s="12" t="n"/>
-    </row>
-    <row r="14" customFormat="1" s="3">
-      <c r="B14" s="27" t="n"/>
-      <c r="C14" s="21" t="n"/>
-    </row>
-    <row r="15" customFormat="1" s="4">
-      <c r="B15" s="28" t="n"/>
-      <c r="C15" s="22" t="n"/>
-      <c r="H15" s="5" t="n"/>
-    </row>
-    <row r="16" customFormat="1" s="13">
-      <c r="A16" s="14" t="n"/>
-      <c r="B16" s="29" t="n"/>
-      <c r="C16" s="23" t="n"/>
-      <c r="H16" s="14" t="n"/>
-    </row>
-    <row r="17" customFormat="1" s="11">
-      <c r="B17" s="30" t="n"/>
-      <c r="C17" s="24" t="n"/>
-      <c r="H17" s="12" t="n"/>
-    </row>
-    <row r="18" customFormat="1" s="3">
-      <c r="B18" s="27" t="n"/>
-      <c r="C18" s="21" t="n"/>
-    </row>
-    <row r="19" customFormat="1" s="4">
-      <c r="B19" s="28" t="n"/>
-      <c r="C19" s="22" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+    </row>
+    <row r="4" customFormat="1" s="37">
+      <c r="A4" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C4" s="38" t="n"/>
+      <c r="D4" s="39" t="n"/>
+      <c r="H4" s="36" t="n"/>
+      <c r="I4" s="36" t="n"/>
+    </row>
+    <row r="5" customFormat="1" s="13">
+      <c r="A5" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C5" s="29" t="n"/>
+      <c r="D5" s="23" t="n"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="14" t="n"/>
+    </row>
+    <row r="6" customFormat="1" s="11">
+      <c r="A6" s="12" t="n"/>
+      <c r="C6" s="30" t="n"/>
+      <c r="D6" s="24" t="n"/>
+      <c r="H6" s="12" t="n"/>
+      <c r="I6" s="12" t="n"/>
+    </row>
+    <row r="7" customFormat="1" s="3">
+      <c r="A7" s="34" t="n"/>
+      <c r="C7" s="27" t="n"/>
+      <c r="D7" s="21" t="n"/>
+    </row>
+    <row r="8" customFormat="1" s="4">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C8" s="28" t="n"/>
+      <c r="D8" s="22" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="37">
+      <c r="A9" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C9" s="38" t="n"/>
+      <c r="D9" s="39" t="n"/>
+      <c r="H9" s="36" t="n"/>
+      <c r="I9" s="36" t="n"/>
+    </row>
+    <row r="10" customFormat="1" s="13">
+      <c r="A10" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C10" s="29" t="n"/>
+      <c r="D10" s="23" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="14" t="n"/>
+      <c r="J10" s="32" t="n"/>
+    </row>
+    <row r="11" customFormat="1" s="11">
+      <c r="A11" s="12" t="n"/>
+      <c r="C11" s="30" t="n"/>
+      <c r="D11" s="24" t="n"/>
+      <c r="H11" s="12" t="n"/>
+      <c r="I11" s="12" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="3">
+      <c r="A12" s="34" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="21" t="n"/>
+    </row>
+    <row r="13" customFormat="1" s="4">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C13" s="28" t="n"/>
+      <c r="D13" s="22" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="5" t="n"/>
+    </row>
+    <row r="14" customFormat="1" s="37">
+      <c r="A14" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C14" s="38" t="n"/>
+      <c r="D14" s="39" t="n"/>
+      <c r="H14" s="36" t="n"/>
+      <c r="I14" s="36" t="n"/>
+    </row>
+    <row r="15" customFormat="1" s="13">
+      <c r="A15" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C15" s="29" t="n"/>
+      <c r="D15" s="23" t="n"/>
+      <c r="H15" s="14" t="n"/>
+      <c r="I15" s="14" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="11">
+      <c r="A16" s="12" t="n"/>
+      <c r="C16" s="30" t="n"/>
+      <c r="D16" s="24" t="n"/>
+      <c r="H16" s="12" t="n"/>
+      <c r="I16" s="12" t="n"/>
+    </row>
+    <row r="17" customFormat="1" s="3">
+      <c r="A17" s="34" t="n"/>
+      <c r="C17" s="27" t="n"/>
+      <c r="D17" s="21" t="n"/>
+    </row>
+    <row r="18" customFormat="1" s="4">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C18" s="28" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="I18" s="5" t="n"/>
+    </row>
+    <row r="19" customFormat="1" s="37">
+      <c r="A19" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C19" s="38" t="n"/>
+      <c r="D19" s="39" t="n"/>
+      <c r="I19" s="36" t="n"/>
     </row>
     <row r="20" customFormat="1" s="13">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="29" t="n"/>
-      <c r="C20" s="23" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="14" t="n"/>
+      <c r="A20" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C20" s="29" t="n"/>
+      <c r="D20" s="23" t="n"/>
+      <c r="I20" s="14" t="n"/>
     </row>
     <row r="21" customFormat="1" s="11">
-      <c r="B21" s="30" t="n"/>
-      <c r="C21" s="24" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="12" t="n"/>
+      <c r="A21" s="12" t="n"/>
+      <c r="C21" s="30" t="n"/>
+      <c r="D21" s="24" t="n"/>
+      <c r="I21" s="12" t="n"/>
     </row>
     <row r="22" customFormat="1" s="3">
-      <c r="B22" s="27" t="n"/>
-      <c r="C22" s="21" t="n"/>
+      <c r="A22" s="34" t="n"/>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="21" t="n"/>
     </row>
     <row r="23" customFormat="1" s="4">
-      <c r="B23" s="28" t="n"/>
-      <c r="C23" s="22" t="n"/>
-      <c r="G23" s="5" t="n"/>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C23" s="28" t="n"/>
+      <c r="D23" s="22" t="n"/>
       <c r="H23" s="5" t="n"/>
-    </row>
-    <row r="24" customFormat="1" s="13">
-      <c r="A24" s="14" t="n"/>
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="23" t="n"/>
-      <c r="G24" s="14" t="n"/>
-      <c r="H24" s="14" t="n"/>
-    </row>
-    <row r="25" customFormat="1" s="11">
-      <c r="B25" s="30" t="n"/>
-      <c r="C25" s="24" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="12" t="n"/>
-    </row>
-    <row r="26" customFormat="1" s="3">
-      <c r="B26" s="27" t="n"/>
-      <c r="C26" s="21" t="n"/>
-    </row>
-    <row r="27" customFormat="1" s="4">
-      <c r="B27" s="28" t="n"/>
-      <c r="C27" s="22" t="n"/>
-      <c r="G27" s="5" t="n"/>
-      <c r="H27" s="5" t="n"/>
-    </row>
-    <row r="28" customFormat="1" s="13">
-      <c r="A28" s="14" t="n"/>
-      <c r="B28" s="29" t="n"/>
-      <c r="C28" s="23" t="n"/>
-      <c r="G28" s="14" t="n"/>
-      <c r="H28" s="14" t="n"/>
-    </row>
-    <row r="29" customFormat="1" s="11">
-      <c r="B29" s="30" t="n"/>
-      <c r="C29" s="24" t="n"/>
-      <c r="G29" s="12" t="n"/>
-      <c r="H29" s="12" t="n"/>
-    </row>
-    <row r="30" customFormat="1" s="3">
-      <c r="B30" s="27" t="n"/>
-      <c r="C30" s="21" t="n"/>
-    </row>
-    <row r="31" customFormat="1" s="4">
-      <c r="B31" s="28" t="n"/>
-      <c r="C31" s="22" t="n"/>
-      <c r="G31" s="5" t="n"/>
-      <c r="H31" s="5" t="n"/>
-    </row>
-    <row r="32" customFormat="1" s="13">
-      <c r="A32" s="14" t="n"/>
-      <c r="B32" s="29" t="n"/>
-      <c r="C32" s="23" t="n"/>
-      <c r="G32" s="14" t="n"/>
-      <c r="H32" s="14" t="n"/>
-    </row>
-    <row r="33" customFormat="1" s="11">
-      <c r="B33" s="30" t="n"/>
-      <c r="C33" s="24" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="12" t="n"/>
-    </row>
-    <row r="34" customFormat="1" s="3">
-      <c r="B34" s="27" t="n"/>
-      <c r="C34" s="21" t="n"/>
-    </row>
-    <row r="35" customFormat="1" s="4">
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="22" t="n"/>
-      <c r="G35" s="5" t="n"/>
-      <c r="H35" s="5" t="n"/>
-    </row>
-    <row r="36" customFormat="1" s="13">
-      <c r="A36" s="14" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="23" t="n"/>
-      <c r="G36" s="14" t="n"/>
-      <c r="H36" s="14" t="n"/>
-    </row>
-    <row r="37" customFormat="1" s="11">
-      <c r="B37" s="30" t="n"/>
-      <c r="C37" s="24" t="n"/>
-    </row>
-    <row r="38" customFormat="1" s="3">
-      <c r="B38" s="27" t="n"/>
-      <c r="C38" s="21" t="n"/>
-    </row>
-    <row r="39" customFormat="1" s="4">
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="22" t="n"/>
-      <c r="G39" s="5" t="n"/>
-      <c r="H39" s="5" t="n"/>
+      <c r="I23" s="5" t="n"/>
+    </row>
+    <row r="24" customFormat="1" s="37">
+      <c r="A24" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C24" s="38" t="n"/>
+      <c r="D24" s="39" t="n"/>
+      <c r="H24" s="36" t="n"/>
+      <c r="I24" s="36" t="n"/>
+    </row>
+    <row r="25" customFormat="1" s="13">
+      <c r="A25" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C25" s="29" t="n"/>
+      <c r="D25" s="23" t="n"/>
+      <c r="H25" s="14" t="n"/>
+      <c r="I25" s="14" t="n"/>
+    </row>
+    <row r="26" customFormat="1" s="11">
+      <c r="A26" s="12" t="n"/>
+      <c r="C26" s="30" t="n"/>
+      <c r="D26" s="24" t="n"/>
+      <c r="H26" s="12" t="n"/>
+      <c r="I26" s="12" t="n"/>
+    </row>
+    <row r="27" customFormat="1" s="3">
+      <c r="A27" s="34" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="21" t="n"/>
+    </row>
+    <row r="28" customFormat="1" s="4">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C28" s="28" t="n"/>
+      <c r="D28" s="22" t="n"/>
+      <c r="H28" s="5" t="n"/>
+      <c r="I28" s="5" t="n"/>
+    </row>
+    <row r="29" customFormat="1" s="37">
+      <c r="A29" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C29" s="38" t="n"/>
+      <c r="D29" s="39" t="n"/>
+      <c r="H29" s="36" t="n"/>
+      <c r="I29" s="36" t="n"/>
+    </row>
+    <row r="30" customFormat="1" s="13">
+      <c r="A30" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C30" s="29" t="n"/>
+      <c r="D30" s="23" t="n"/>
+      <c r="H30" s="14" t="n"/>
+      <c r="I30" s="14" t="n"/>
+    </row>
+    <row r="31" customFormat="1" s="11">
+      <c r="A31" s="12" t="n"/>
+      <c r="C31" s="30" t="n"/>
+      <c r="D31" s="24" t="n"/>
+      <c r="H31" s="12" t="n"/>
+      <c r="I31" s="12" t="n"/>
+    </row>
+    <row r="32" customFormat="1" s="3">
+      <c r="A32" s="34" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="21" t="n"/>
+    </row>
+    <row r="33" customFormat="1" s="4">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C33" s="28" t="n"/>
+      <c r="D33" s="22" t="n"/>
+      <c r="H33" s="5" t="n"/>
+      <c r="I33" s="5" t="n"/>
+    </row>
+    <row r="34" customFormat="1" s="37">
+      <c r="A34" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C34" s="38" t="n"/>
+      <c r="D34" s="39" t="n"/>
+      <c r="H34" s="36" t="n"/>
+      <c r="I34" s="36" t="n"/>
+    </row>
+    <row r="35" customFormat="1" s="13">
+      <c r="A35" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C35" s="29" t="n"/>
+      <c r="D35" s="23" t="n"/>
+      <c r="H35" s="14" t="n"/>
+      <c r="I35" s="14" t="n"/>
+    </row>
+    <row r="36" customFormat="1" s="11">
+      <c r="A36" s="12" t="n"/>
+      <c r="C36" s="30" t="n"/>
+      <c r="D36" s="24" t="n"/>
+      <c r="H36" s="12" t="n"/>
+      <c r="I36" s="12" t="n"/>
+    </row>
+    <row r="37" customFormat="1" s="3">
+      <c r="A37" s="34" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="21" t="n"/>
+    </row>
+    <row r="38" customFormat="1" s="4">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="n"/>
+      <c r="D38" s="22" t="n"/>
+      <c r="H38" s="5" t="n"/>
+      <c r="I38" s="5" t="n"/>
+    </row>
+    <row r="39" customFormat="1" s="37">
+      <c r="A39" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C39" s="38" t="n"/>
+      <c r="D39" s="39" t="n"/>
+      <c r="H39" s="36" t="n"/>
+      <c r="I39" s="36" t="n"/>
     </row>
     <row r="40" customFormat="1" s="13">
-      <c r="A40" s="14" t="n"/>
-      <c r="B40" s="29" t="n"/>
-      <c r="C40" s="23" t="n"/>
-      <c r="G40" s="14" t="n"/>
+      <c r="A40" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C40" s="29" t="n"/>
+      <c r="D40" s="23" t="n"/>
       <c r="H40" s="14" t="n"/>
+      <c r="I40" s="14" t="n"/>
     </row>
     <row r="41" customFormat="1" s="11">
-      <c r="B41" s="30" t="n"/>
-      <c r="C41" s="24" t="n"/>
+      <c r="A41" s="12" t="n"/>
+      <c r="C41" s="30" t="n"/>
+      <c r="D41" s="24" t="n"/>
+      <c r="H41" s="12" t="n"/>
+      <c r="I41" s="12" t="n"/>
     </row>
     <row r="42" customFormat="1" s="3">
-      <c r="B42" s="27" t="n"/>
-      <c r="C42" s="21" t="n"/>
+      <c r="A42" s="34" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="21" t="n"/>
     </row>
     <row r="43" customFormat="1" s="4">
-      <c r="B43" s="28" t="n"/>
-      <c r="C43" s="22" t="n"/>
-      <c r="G43" s="5" t="n"/>
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C43" s="28" t="n"/>
+      <c r="D43" s="22" t="n"/>
       <c r="H43" s="5" t="n"/>
-    </row>
-    <row r="44" customFormat="1" s="13">
-      <c r="A44" s="14" t="n"/>
-      <c r="B44" s="29" t="n"/>
-      <c r="C44" s="23" t="n"/>
-    </row>
-    <row r="45" customFormat="1" s="11">
-      <c r="B45" s="30" t="n"/>
-      <c r="C45" s="24" t="n"/>
-    </row>
-    <row r="46" customFormat="1" s="3">
-      <c r="B46" s="27" t="n"/>
-      <c r="C46" s="21" t="n"/>
-    </row>
-    <row r="47" customFormat="1" s="4">
-      <c r="B47" s="28" t="n"/>
-      <c r="C47" s="22" t="n"/>
-      <c r="G47" s="5" t="n"/>
-      <c r="H47" s="5" t="n"/>
-    </row>
-    <row r="48" customFormat="1" s="13">
-      <c r="A48" s="14" t="n"/>
-      <c r="B48" s="29" t="n"/>
-      <c r="C48" s="23" t="n"/>
-    </row>
-    <row r="49" customFormat="1" s="11">
-      <c r="B49" s="30" t="n"/>
-      <c r="C49" s="24" t="n"/>
-    </row>
-    <row r="50" customFormat="1" s="3">
-      <c r="B50" s="27" t="n"/>
-      <c r="C50" s="21" t="n"/>
-    </row>
-    <row r="51" customFormat="1" s="4">
-      <c r="B51" s="28" t="n"/>
-      <c r="C51" s="22" t="n"/>
-      <c r="G51" s="5" t="n"/>
-      <c r="H51" s="5" t="n"/>
-    </row>
-    <row r="52" customFormat="1" s="13">
-      <c r="A52" s="14" t="n"/>
-      <c r="B52" s="29" t="n"/>
-      <c r="C52" s="23" t="n"/>
-    </row>
-    <row r="54" customFormat="1" s="3">
-      <c r="B54" s="27" t="n"/>
-      <c r="C54" s="21" t="n"/>
-    </row>
-    <row r="55" customFormat="1" s="4">
-      <c r="B55" s="28" t="n"/>
-      <c r="C55" s="22" t="n"/>
-      <c r="G55" s="5" t="n"/>
-      <c r="H55" s="5" t="n"/>
-    </row>
-    <row r="56" customFormat="1" s="13">
-      <c r="A56" s="14" t="n"/>
-      <c r="B56" s="29" t="n"/>
-      <c r="C56" s="23" t="n"/>
-    </row>
-    <row r="58" customFormat="1" s="3">
-      <c r="B58" s="27" t="n"/>
-      <c r="C58" s="21" t="n"/>
-    </row>
-    <row r="59" customFormat="1" s="4">
-      <c r="B59" s="28" t="n"/>
-      <c r="C59" s="22" t="n"/>
-      <c r="G59" s="5" t="n"/>
-      <c r="H59" s="5" t="n"/>
+      <c r="I43" s="5" t="n"/>
+    </row>
+    <row r="44" customFormat="1" s="37">
+      <c r="A44" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C44" s="38" t="n"/>
+      <c r="D44" s="39" t="n"/>
+      <c r="H44" s="36" t="n"/>
+      <c r="I44" s="36" t="n"/>
+    </row>
+    <row r="45" customFormat="1" s="13">
+      <c r="A45" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n"/>
+      <c r="D45" s="23" t="n"/>
+      <c r="H45" s="14" t="n"/>
+      <c r="I45" s="14" t="n"/>
+    </row>
+    <row r="46" customFormat="1" s="11">
+      <c r="A46" s="12" t="n"/>
+      <c r="C46" s="30" t="n"/>
+      <c r="D46" s="24" t="n"/>
+    </row>
+    <row r="47" customFormat="1" s="3">
+      <c r="A47" s="34" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="21" t="n"/>
+    </row>
+    <row r="48" customFormat="1" s="4">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LINES </t>
+        </is>
+      </c>
+      <c r="C48" s="28" t="n"/>
+      <c r="D48" s="22" t="n"/>
+      <c r="H48" s="5" t="n"/>
+      <c r="I48" s="5" t="n"/>
+    </row>
+    <row r="49" customFormat="1" s="37">
+      <c r="A49" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C49" s="38" t="n"/>
+      <c r="D49" s="39" t="n"/>
+      <c r="H49" s="36" t="n"/>
+      <c r="I49" s="36" t="n"/>
+    </row>
+    <row r="50" customFormat="1" s="13">
+      <c r="A50" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C50" s="29" t="n"/>
+      <c r="D50" s="23" t="n"/>
+      <c r="H50" s="14" t="n"/>
+      <c r="I50" s="14" t="n"/>
+    </row>
+    <row r="51" customFormat="1" s="11">
+      <c r="A51" s="12" t="n"/>
+      <c r="C51" s="30" t="n"/>
+      <c r="D51" s="24" t="n"/>
+    </row>
+    <row r="52" customFormat="1" s="3">
+      <c r="A52" s="34" t="n"/>
+      <c r="C52" s="27" t="n"/>
+      <c r="D52" s="21" t="n"/>
+    </row>
+    <row r="53" customFormat="1" s="4">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C53" s="28" t="n"/>
+      <c r="D53" s="22" t="n"/>
+      <c r="H53" s="5" t="n"/>
+      <c r="I53" s="5" t="n"/>
+    </row>
+    <row r="54" customFormat="1" s="37">
+      <c r="A54" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C54" s="38" t="n"/>
+      <c r="D54" s="39" t="n"/>
+      <c r="H54" s="36" t="n"/>
+      <c r="I54" s="36" t="n"/>
+    </row>
+    <row r="55" customFormat="1" s="13">
+      <c r="A55" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="29" t="n"/>
+      <c r="D55" s="23" t="n"/>
+    </row>
+    <row r="56" customFormat="1" s="11">
+      <c r="A56" s="12" t="n"/>
+      <c r="C56" s="30" t="n"/>
+      <c r="D56" s="24" t="n"/>
+    </row>
+    <row r="57" customFormat="1" s="3">
+      <c r="A57" s="34" t="n"/>
+      <c r="C57" s="27" t="n"/>
+      <c r="D57" s="21" t="n"/>
+    </row>
+    <row r="58" customFormat="1" s="4">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C58" s="28" t="n"/>
+      <c r="D58" s="22" t="n"/>
+      <c r="H58" s="5" t="n"/>
+      <c r="I58" s="5" t="n"/>
+    </row>
+    <row r="59" customFormat="1" s="37">
+      <c r="A59" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C59" s="38" t="n"/>
+      <c r="D59" s="39" t="n"/>
+      <c r="H59" s="36" t="n"/>
+      <c r="I59" s="36" t="n"/>
     </row>
     <row r="60" customFormat="1" s="13">
-      <c r="A60" s="14" t="n"/>
-      <c r="B60" s="29" t="n"/>
-      <c r="C60" s="23" t="n"/>
+      <c r="A60" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="29" t="n"/>
+      <c r="D60" s="23" t="n"/>
+    </row>
+    <row r="61" customFormat="1" s="11">
+      <c r="A61" s="12" t="n"/>
+      <c r="C61" s="30" t="n"/>
+      <c r="D61" s="24" t="n"/>
     </row>
     <row r="62" customFormat="1" s="3">
-      <c r="B62" s="27" t="n"/>
-      <c r="C62" s="21" t="n"/>
+      <c r="A62" s="34" t="n"/>
+      <c r="C62" s="27" t="n"/>
+      <c r="D62" s="21" t="n"/>
     </row>
     <row r="63" customFormat="1" s="4">
-      <c r="B63" s="28" t="n"/>
-      <c r="C63" s="22" t="n"/>
-      <c r="G63" s="5" t="n"/>
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C63" s="28" t="n"/>
+      <c r="D63" s="22" t="n"/>
       <c r="H63" s="5" t="n"/>
-    </row>
-    <row r="64" customFormat="1" s="13">
-      <c r="A64" s="14" t="n"/>
-      <c r="B64" s="29" t="n"/>
-      <c r="C64" s="23" t="n"/>
-    </row>
-    <row r="66" customFormat="1" s="3">
-      <c r="B66" s="27" t="n"/>
-      <c r="C66" s="21" t="n"/>
-    </row>
-    <row r="67" customFormat="1" s="4">
-      <c r="B67" s="28" t="n"/>
-      <c r="C67" s="22" t="n"/>
-      <c r="G67" s="5" t="n"/>
-      <c r="H67" s="5" t="n"/>
-    </row>
-    <row r="68" customFormat="1" s="13">
-      <c r="A68" s="14" t="n"/>
-      <c r="B68" s="29" t="n"/>
-      <c r="C68" s="23" t="n"/>
-    </row>
-    <row r="70" customFormat="1" s="3">
-      <c r="B70" s="27" t="n"/>
-      <c r="C70" s="21" t="n"/>
-    </row>
-    <row r="71" customFormat="1" s="4">
-      <c r="B71" s="28" t="n"/>
-      <c r="C71" s="22" t="n"/>
-      <c r="G71" s="5" t="n"/>
-      <c r="H71" s="5" t="n"/>
-    </row>
-    <row r="72" customFormat="1" s="13">
-      <c r="A72" s="14" t="n"/>
-      <c r="B72" s="29" t="n"/>
-      <c r="C72" s="23" t="n"/>
-    </row>
-    <row r="75" customFormat="1" s="3">
-      <c r="A75" s="3" t="inlineStr">
+      <c r="I63" s="5" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="37">
+      <c r="A64" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C64" s="38" t="n"/>
+      <c r="D64" s="39" t="n"/>
+      <c r="H64" s="36" t="n"/>
+      <c r="I64" s="36" t="n"/>
+    </row>
+    <row r="65" customFormat="1" s="13">
+      <c r="A65" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B65" s="14" t="n"/>
+      <c r="C65" s="29" t="n"/>
+      <c r="D65" s="23" t="n"/>
+    </row>
+    <row r="67" customFormat="1" s="3">
+      <c r="A67" s="34" t="n"/>
+      <c r="C67" s="27" t="n"/>
+      <c r="D67" s="21" t="n"/>
+    </row>
+    <row r="68" customFormat="1" s="4">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C68" s="28" t="n"/>
+      <c r="D68" s="22" t="n"/>
+      <c r="H68" s="5" t="n"/>
+      <c r="I68" s="5" t="n"/>
+    </row>
+    <row r="69" customFormat="1" s="37">
+      <c r="A69" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C69" s="38" t="n"/>
+      <c r="D69" s="39" t="n"/>
+      <c r="H69" s="36" t="n"/>
+      <c r="I69" s="36" t="n"/>
+    </row>
+    <row r="70" customFormat="1" s="13">
+      <c r="A70" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B70" s="14" t="n"/>
+      <c r="C70" s="29" t="n"/>
+      <c r="D70" s="23" t="n"/>
+    </row>
+    <row r="72" customFormat="1" s="3">
+      <c r="A72" s="34" t="n"/>
+      <c r="C72" s="27" t="n"/>
+      <c r="D72" s="21" t="n"/>
+    </row>
+    <row r="73" customFormat="1" s="4">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C73" s="28" t="n"/>
+      <c r="D73" s="22" t="n"/>
+      <c r="H73" s="5" t="n"/>
+      <c r="I73" s="5" t="n"/>
+    </row>
+    <row r="74" customFormat="1" s="37">
+      <c r="A74" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C74" s="38" t="n"/>
+      <c r="D74" s="39" t="n"/>
+      <c r="H74" s="36" t="n"/>
+      <c r="I74" s="36" t="n"/>
+    </row>
+    <row r="75" customFormat="1" s="13">
+      <c r="A75" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B75" s="14" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="23" t="n"/>
+    </row>
+    <row r="77" customFormat="1" s="3">
+      <c r="A77" s="34" t="n"/>
+      <c r="C77" s="27" t="n"/>
+      <c r="D77" s="21" t="n"/>
+    </row>
+    <row r="78" customFormat="1" s="4">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C78" s="28" t="n"/>
+      <c r="D78" s="22" t="n"/>
+      <c r="H78" s="5" t="n"/>
+      <c r="I78" s="5" t="n"/>
+    </row>
+    <row r="79" customFormat="1" s="37">
+      <c r="A79" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C79" s="38" t="n"/>
+      <c r="D79" s="39" t="n"/>
+      <c r="H79" s="36" t="n"/>
+      <c r="I79" s="36" t="n"/>
+    </row>
+    <row r="80" customFormat="1" s="13">
+      <c r="A80" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B80" s="14" t="n"/>
+      <c r="C80" s="29" t="n"/>
+      <c r="D80" s="23" t="n"/>
+    </row>
+    <row r="82" customFormat="1" s="3">
+      <c r="A82" s="34" t="n"/>
+      <c r="C82" s="27" t="n"/>
+      <c r="D82" s="21" t="n"/>
+    </row>
+    <row r="83" customFormat="1" s="4">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C83" s="28" t="n"/>
+      <c r="D83" s="22" t="n"/>
+      <c r="H83" s="5" t="n"/>
+      <c r="I83" s="5" t="n"/>
+    </row>
+    <row r="84" customFormat="1" s="37">
+      <c r="A84" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C84" s="38" t="n"/>
+      <c r="D84" s="39" t="n"/>
+      <c r="H84" s="36" t="n"/>
+      <c r="I84" s="36" t="n"/>
+    </row>
+    <row r="85" customFormat="1" s="13">
+      <c r="A85" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B85" s="14" t="n"/>
+      <c r="C85" s="29" t="n"/>
+      <c r="D85" s="23" t="n"/>
+    </row>
+    <row r="87" customFormat="1" s="3">
+      <c r="A87" s="34" t="n"/>
+      <c r="C87" s="27" t="n"/>
+      <c r="D87" s="21" t="n"/>
+    </row>
+    <row r="88" customFormat="1" s="4">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C88" s="28" t="n"/>
+      <c r="D88" s="22" t="n"/>
+      <c r="H88" s="5" t="n"/>
+      <c r="I88" s="5" t="n"/>
+    </row>
+    <row r="89" customFormat="1" s="37">
+      <c r="A89" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C89" s="38" t="n"/>
+      <c r="D89" s="39" t="n"/>
+      <c r="H89" s="36" t="n"/>
+      <c r="I89" s="36" t="n"/>
+    </row>
+    <row r="90" customFormat="1" s="13">
+      <c r="A90" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B90" s="14" t="n"/>
+      <c r="C90" s="29" t="n"/>
+      <c r="D90" s="23" t="n"/>
+    </row>
+    <row r="93" customFormat="1" s="3">
+      <c r="A93" s="34" t="inlineStr">
         <is>
           <t>OVER/UNDER Week</t>
         </is>
       </c>
-      <c r="B75" s="27" t="n"/>
-      <c r="C75" s="21" t="n"/>
-    </row>
-    <row r="76" customFormat="1" s="4">
-      <c r="A76" s="4" t="inlineStr">
+      <c r="C93" s="27" t="n"/>
+      <c r="D93" s="21" t="n"/>
+    </row>
+    <row r="94" customFormat="1" s="4">
+      <c r="A94" s="5" t="inlineStr">
         <is>
           <t>OVER/UNDER Season</t>
         </is>
       </c>
-      <c r="B76" s="28" t="n"/>
-      <c r="C76" s="22" t="n"/>
-    </row>
-    <row r="77" customFormat="1" s="3">
-      <c r="A77" s="3" t="inlineStr">
+      <c r="C94" s="28" t="n"/>
+      <c r="D94" s="22" t="n"/>
+    </row>
+    <row r="95" customFormat="1" s="3">
+      <c r="A95" s="34" t="inlineStr">
         <is>
           <t>Spread Week</t>
         </is>
       </c>
-      <c r="B77" s="27" t="n"/>
-      <c r="C77" s="21" t="n"/>
-    </row>
-    <row r="78" customFormat="1" s="4">
-      <c r="A78" s="4" t="inlineStr">
+      <c r="C95" s="27" t="n"/>
+      <c r="D95" s="21" t="n"/>
+    </row>
+    <row r="96" customFormat="1" s="4">
+      <c r="A96" s="5" t="inlineStr">
         <is>
           <t>Spread Season</t>
         </is>
       </c>
-      <c r="B78" s="28" t="n"/>
-      <c r="C78" s="22" t="n"/>
-    </row>
-    <row r="79" customFormat="1" s="3">
-      <c r="A79" s="3" t="inlineStr">
+      <c r="C96" s="28" t="n"/>
+      <c r="D96" s="22" t="n"/>
+    </row>
+    <row r="97" customFormat="1" s="3">
+      <c r="A97" s="34" t="inlineStr">
         <is>
           <t>Moneyline Week</t>
         </is>
       </c>
-      <c r="B79" s="27" t="n"/>
-      <c r="C79" s="21" t="n"/>
-    </row>
-    <row r="80" customFormat="1" s="4">
-      <c r="A80" s="4" t="inlineStr">
+      <c r="C97" s="27" t="n"/>
+      <c r="D97" s="21" t="n"/>
+    </row>
+    <row r="98" customFormat="1" s="4">
+      <c r="A98" s="5" t="inlineStr">
         <is>
           <t>Moneyline Season</t>
         </is>
       </c>
-      <c r="B80" s="28" t="n"/>
-      <c r="C80" s="22" t="n"/>
-    </row>
-    <row r="81" customFormat="1" s="3">
-      <c r="A81" s="3" t="inlineStr">
+      <c r="C98" s="28" t="n"/>
+      <c r="D98" s="22" t="n"/>
+    </row>
+    <row r="99" customFormat="1" s="3">
+      <c r="A99" s="34" t="inlineStr">
         <is>
           <t>TOTAL Week</t>
         </is>
       </c>
-      <c r="B81" s="27" t="n"/>
-      <c r="C81" s="21" t="n"/>
-    </row>
-    <row r="82" customFormat="1" s="4">
-      <c r="A82" s="4" t="inlineStr">
+      <c r="C99" s="27" t="n"/>
+      <c r="D99" s="21" t="n"/>
+    </row>
+    <row r="100" customFormat="1" s="4">
+      <c r="A100" s="5" t="inlineStr">
         <is>
           <t>TOTAL Season</t>
         </is>
       </c>
-      <c r="B82" s="28" t="n"/>
-      <c r="C82" s="22" t="n"/>
+      <c r="C100" s="28" t="n"/>
+      <c r="D100" s="22" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1055,12 +1475,12 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B63" sqref="B63"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A54" sqref="A54:A61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="15.85546875" customWidth="1" min="1" max="1"/>
     <col width="12.28515625" customWidth="1" style="31" min="2" max="2"/>
@@ -2333,928 +2753,2442 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I82"/>
+  <dimension ref="A1:J82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="15.5703125" customWidth="1" min="4" max="4"/>
+    <col width="17.5703125" customWidth="1" style="25" min="5" max="5"/>
+    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="18.7109375" customWidth="1" min="7" max="7"/>
+    <col width="14.85546875" customWidth="1" min="8" max="8"/>
+    <col width="17" customWidth="1" min="9" max="9"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="40" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" s="40" t="inlineStr">
+        <is>
+          <t>home</t>
+        </is>
+      </c>
+      <c r="C1" s="40" t="inlineStr">
+        <is>
+          <t>away</t>
+        </is>
+      </c>
+      <c r="D1" s="40" t="inlineStr">
+        <is>
+          <t>home_win_prob</t>
+        </is>
+      </c>
+      <c r="E1" s="41" t="inlineStr">
+        <is>
+          <t>away_win_prob</t>
+        </is>
+      </c>
+      <c r="F1" s="40" t="inlineStr">
+        <is>
+          <t>home_avg_score</t>
+        </is>
+      </c>
+      <c r="G1" s="40" t="inlineStr">
+        <is>
+          <t>away_avg_score</t>
+        </is>
+      </c>
+      <c r="H1" s="40" t="inlineStr">
+        <is>
+          <t>mean_total</t>
+        </is>
+      </c>
+      <c r="I1" s="40" t="inlineStr">
+        <is>
+          <t>mean_spread</t>
+        </is>
+      </c>
+      <c r="J1" s="35" t="inlineStr">
+        <is>
+          <t>$ LINE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="3">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>CAR</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.618</v>
+      </c>
+      <c r="E2" s="21" t="n">
+        <v>0.382</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>22.6</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>43.1</v>
+      </c>
+      <c r="I2" s="3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" s="4">
+      <c r="E3" s="22" t="n"/>
+      <c r="H3" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="I3" s="4" t="inlineStr">
+        <is>
+          <t>Atl -4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" customFormat="1" s="13">
+      <c r="E4" s="23" t="n"/>
+      <c r="H4" s="18" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="I4" s="18" t="inlineStr">
+        <is>
+          <t>Car +4.5</t>
+        </is>
+      </c>
+      <c r="J4" s="18" t="inlineStr">
+        <is>
+          <t>Car</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" customFormat="1" s="3">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>GB</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>0.528</v>
+      </c>
+      <c r="E6" s="21" t="n">
+        <v>0.472</v>
+      </c>
+      <c r="F6" s="3" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="H6" s="3" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="I6" s="3" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" s="4">
+      <c r="E7" s="22" t="n"/>
+      <c r="H7" s="4" t="n">
+        <v>41</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>gb -7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" customFormat="1" s="13">
+      <c r="E8" s="23" t="n"/>
+      <c r="H8" s="15" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="I8" s="18" t="inlineStr">
+        <is>
+          <t>Cle +7</t>
+        </is>
+      </c>
+      <c r="J8" s="18" t="inlineStr">
+        <is>
+          <t>Cle</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" customFormat="1" s="3">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>0.608</v>
+      </c>
+      <c r="E10" s="21" t="n">
+        <v>0.392</v>
+      </c>
+      <c r="F10" s="3" t="n">
+        <v>22.1</v>
+      </c>
+      <c r="G10" s="3" t="n">
+        <v>20.1</v>
+      </c>
+      <c r="H10" s="3" t="n">
+        <v>42.2</v>
+      </c>
+      <c r="I10" s="3" t="n">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" s="4">
+      <c r="E11" s="22" t="n"/>
+      <c r="H11" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="I11" s="4" t="inlineStr">
+        <is>
+          <t>hou -1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" customFormat="1" s="13">
+      <c r="E12" s="23" t="n"/>
+      <c r="H12" s="18" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="I12" s="18" t="inlineStr">
+        <is>
+          <t>Jax +1.5</t>
+        </is>
+      </c>
+      <c r="J12" s="18" t="inlineStr">
+        <is>
+          <t>jax</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" customFormat="1" s="3">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>CIN</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>0.644</v>
+      </c>
+      <c r="E14" s="21" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="H14" s="3" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" s="4">
+      <c r="E15" s="22" t="n"/>
+      <c r="H15" s="4" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="I15" s="4" t="inlineStr">
+        <is>
+          <t>Min -3.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" customFormat="1" s="13">
+      <c r="E16" s="23" t="n"/>
+      <c r="H16" s="18" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>Cin +3.5</t>
+        </is>
+      </c>
+      <c r="J16" s="18" t="inlineStr">
+        <is>
+          <t>Min</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" customFormat="1" s="3">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="E18" s="21" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="H18" s="3" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="19" customFormat="1" s="4">
+      <c r="E19" s="22" t="n"/>
+      <c r="H19" s="4" t="n">
+        <v>44</v>
+      </c>
+      <c r="I19" s="4" t="inlineStr">
+        <is>
+          <t>Pit -1</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" customFormat="1" s="13">
+      <c r="E20" s="23" t="n"/>
+      <c r="H20" s="18" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NE +1 </t>
+        </is>
+      </c>
+      <c r="J20" s="18" t="inlineStr">
+        <is>
+          <t>Pit</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" customFormat="1" s="3">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>LAR</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>0.662</v>
+      </c>
+      <c r="E22" s="21" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="H22" s="3" t="n">
+        <v>45.9</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" s="4">
+      <c r="E23" s="22" t="n"/>
+      <c r="H23" s="4" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I23" s="4" t="inlineStr">
+        <is>
+          <t>Phi -3.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" customFormat="1" s="13">
+      <c r="E24" s="23" t="n"/>
+      <c r="H24" s="18" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="I24" s="18" t="inlineStr">
+        <is>
+          <t>LAR +3.5</t>
+        </is>
+      </c>
+      <c r="J24" s="18" t="inlineStr">
+        <is>
+          <t>Phi</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" customFormat="1" s="3">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>NYJ</t>
+        </is>
+      </c>
+      <c r="D26" s="3" t="n">
+        <v>0.856</v>
+      </c>
+      <c r="E26" s="21" t="n">
+        <v>0.144</v>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>19.8</v>
+      </c>
+      <c r="H26" s="3" t="n">
+        <v>47.6</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" s="4">
+      <c r="E27" s="22" t="n"/>
+      <c r="H27" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="I27" s="4" t="inlineStr">
+        <is>
+          <t>TB -6.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" customFormat="1" s="13">
+      <c r="E28" s="23" t="n"/>
+      <c r="H28" s="18" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="I28" s="15" t="inlineStr">
+        <is>
+          <t>TB -6.5</t>
+        </is>
+      </c>
+      <c r="J28" s="18" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" customFormat="1" s="3">
+      <c r="A30" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="E30" s="21" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>19.3</v>
+      </c>
+      <c r="H30" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="I30" s="3" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" s="4">
+      <c r="E31" s="22" t="n"/>
+      <c r="H31" s="4" t="n">
+        <v>43</v>
+      </c>
+      <c r="I31" s="4" t="inlineStr">
+        <is>
+          <t>Ind -5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" customFormat="1" s="13">
+      <c r="E32" s="23" t="n"/>
+      <c r="H32" s="15" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>Ten +5</t>
+        </is>
+      </c>
+      <c r="J32" s="15" t="inlineStr">
+        <is>
+          <t>Tn</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" customFormat="1" s="3">
+      <c r="A34" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>LV</t>
+        </is>
+      </c>
+      <c r="D34" s="3" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="E34" s="21" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="H34" s="3" t="n">
+        <v>40.1</v>
+      </c>
+      <c r="I34" s="3" t="n">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" s="4">
+      <c r="E35" s="22" t="n"/>
+      <c r="H35" s="4" t="n">
+        <v>43.5</v>
+      </c>
+      <c r="I35" s="4" t="inlineStr">
+        <is>
+          <t>Was -2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" customFormat="1" s="13">
+      <c r="E36" s="23" t="n"/>
+      <c r="H36" s="15" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="I36" s="15" t="inlineStr">
+        <is>
+          <t>LV +2.5</t>
+        </is>
+      </c>
+      <c r="J36" s="15" t="inlineStr">
+        <is>
+          <t>LV</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" customFormat="1" s="3">
+      <c r="A38" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="C38" s="3" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D38" s="3" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="E38" s="21" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="H38" s="3" t="n">
+        <v>46.6</v>
+      </c>
+      <c r="I38" s="3" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" s="4">
+      <c r="E39" s="22" t="n"/>
+      <c r="H39" s="4" t="n">
+        <v>46</v>
+      </c>
+      <c r="I39" s="4" t="inlineStr">
+        <is>
+          <t>LAC -2.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" customFormat="1" s="13">
+      <c r="E40" s="23" t="n"/>
+      <c r="H40" s="15" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="I40" s="15" t="inlineStr">
+        <is>
+          <t>Den +2.5</t>
+        </is>
+      </c>
+      <c r="J40" s="18" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" customFormat="1" s="3">
+      <c r="A42" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="E42" s="21" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>24</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H42" s="3" t="n">
+        <v>40.9</v>
+      </c>
+      <c r="I42" s="3" t="n">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" s="4">
+      <c r="E43" s="22" t="n"/>
+      <c r="H43" s="4" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="I43" s="4" t="inlineStr">
+        <is>
+          <t>Sea -7</t>
+        </is>
+      </c>
+    </row>
+    <row r="44" customFormat="1" s="13">
+      <c r="E44" s="23" t="n"/>
+      <c r="H44" s="15" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="I44" s="18" t="inlineStr">
+        <is>
+          <t>Sea -7</t>
+        </is>
+      </c>
+      <c r="J44" s="18" t="inlineStr">
+        <is>
+          <t>Sea</t>
+        </is>
+      </c>
+    </row>
+    <row r="46" customFormat="1" s="3">
+      <c r="A46" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="D46" s="3" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="E46" s="21" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>25.9</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="H46" s="3" t="n">
+        <v>49.7</v>
+      </c>
+      <c r="I46" s="3" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" s="4">
+      <c r="E47" s="22" t="n"/>
+      <c r="H47" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I47" s="4" t="inlineStr">
+        <is>
+          <t>Dal -1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="48" customFormat="1" s="13">
+      <c r="E48" s="23" t="n"/>
+      <c r="H48" s="18" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="I48" s="18" t="inlineStr">
+        <is>
+          <t>Chi +1.5</t>
+        </is>
+      </c>
+      <c r="J48" s="18" t="inlineStr">
+        <is>
+          <t>Chi</t>
+        </is>
+      </c>
+    </row>
+    <row r="50" customFormat="1" s="3">
+      <c r="A50" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B50" s="3" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>ARI</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="E50" s="21" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>24.4</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="H50" s="3" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="I50" s="3" t="n">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" s="4">
+      <c r="E51" s="22" t="n"/>
+      <c r="H51" s="4" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="I51" s="4" t="inlineStr">
+        <is>
+          <t>SF -1.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="52" customFormat="1" s="13">
+      <c r="E52" s="23" t="n"/>
+      <c r="H52" s="15" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="I52" s="18" t="inlineStr">
+        <is>
+          <t>SF -1.5</t>
+        </is>
+      </c>
+      <c r="J52" s="18" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+    </row>
+    <row r="54" customFormat="1" s="3">
+      <c r="A54" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>KC</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="E54" s="21" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="H54" s="3" t="n">
+        <v>43.4</v>
+      </c>
+      <c r="I54" s="3" t="n">
+        <v>-3.9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" s="4">
+      <c r="E55" s="22" t="n"/>
+      <c r="H55" s="4" t="n">
+        <v>44.5</v>
+      </c>
+      <c r="I55" s="4" t="inlineStr">
+        <is>
+          <t>KC-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="56" customFormat="1" s="13">
+      <c r="E56" s="23" t="n"/>
+      <c r="H56" s="18" t="inlineStr">
+        <is>
+          <t>under</t>
+        </is>
+      </c>
+      <c r="I56" s="15" t="inlineStr">
+        <is>
+          <t>NYG +6</t>
+        </is>
+      </c>
+      <c r="J56" s="18" t="inlineStr">
+        <is>
+          <t>KC</t>
+        </is>
+      </c>
+    </row>
+    <row r="58" customFormat="1" s="3">
+      <c r="A58" s="3" t="inlineStr">
+        <is>
+          <t>GAME</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="n">
+        <v>0.704</v>
+      </c>
+      <c r="E58" s="21" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="H58" s="3" t="n">
+        <v>55.3</v>
+      </c>
+      <c r="I58" s="3" t="n">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" s="4">
+      <c r="E59" s="22" t="n"/>
+      <c r="H59" s="4" t="n">
+        <v>53.5</v>
+      </c>
+      <c r="I59" s="4" t="inlineStr">
+        <is>
+          <t>Bal -4.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="60" customFormat="1" s="13">
+      <c r="E60" s="23" t="n"/>
+      <c r="H60" s="18" t="inlineStr">
+        <is>
+          <t>over</t>
+        </is>
+      </c>
+      <c r="I60" s="18" t="inlineStr">
+        <is>
+          <t>Det +4.5</t>
+        </is>
+      </c>
+      <c r="J60" s="18" t="inlineStr">
+        <is>
+          <t>Det</t>
+        </is>
+      </c>
+    </row>
+    <row r="75" customFormat="1" s="3">
+      <c r="A75" s="34" t="inlineStr">
+        <is>
+          <t>OVER/UNDER Week</t>
+        </is>
+      </c>
+      <c r="D75" s="3" t="inlineStr">
+        <is>
+          <t>9 of 15</t>
+        </is>
+      </c>
+      <c r="E75" s="21" t="n">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" s="4">
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>OVER/UNDER Season</t>
+        </is>
+      </c>
+      <c r="D76" s="4" t="inlineStr">
+        <is>
+          <t>16 of 27</t>
+        </is>
+      </c>
+      <c r="E76" s="22" t="n">
+        <v>0.005925925925925926</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" s="3">
+      <c r="A77" s="34" t="inlineStr">
+        <is>
+          <t>Spread Week</t>
+        </is>
+      </c>
+      <c r="D77" s="42" t="inlineStr">
+        <is>
+          <t>8 of 15</t>
+        </is>
+      </c>
+      <c r="E77" s="21" t="n">
+        <v>0.005333333333333333</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" s="4">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>Spread Season</t>
+        </is>
+      </c>
+      <c r="D78" s="4" t="inlineStr">
+        <is>
+          <t>16 of 28</t>
+        </is>
+      </c>
+      <c r="E78" s="22" t="n">
+        <v>0.005714285714285714</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" s="3">
+      <c r="A79" s="34" t="inlineStr">
+        <is>
+          <t>Moneyline Week</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>13 of 15</t>
+        </is>
+      </c>
+      <c r="E79" s="21" t="n">
+        <v>0.008666666666666666</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" s="4">
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>Moneyline Season</t>
+        </is>
+      </c>
+      <c r="D80" s="4" t="inlineStr">
+        <is>
+          <t>21 of 28</t>
+        </is>
+      </c>
+      <c r="E80" s="22" t="n">
+        <v>0.0075</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" s="3">
+      <c r="A81" s="34" t="inlineStr">
+        <is>
+          <t>TOTAL Week</t>
+        </is>
+      </c>
+      <c r="D81" s="3" t="inlineStr">
+        <is>
+          <t>30 of 45</t>
+        </is>
+      </c>
+      <c r="E81" s="21" t="n">
+        <v>0.006666666666666666</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" s="4">
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>TOTAL Season</t>
+        </is>
+      </c>
+      <c r="D82" s="4" t="inlineStr">
+        <is>
+          <t>50 of 83</t>
+        </is>
+      </c>
+      <c r="E82" s="22" t="n">
+        <v>0.006024096385542169</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:J100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="22.140625" customWidth="1" min="1" max="1"/>
-    <col width="12.28515625" customWidth="1" style="31" min="2" max="2"/>
-    <col width="14.28515625" customWidth="1" style="25" min="3" max="3"/>
-    <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="15.28515625" customWidth="1" min="5" max="6"/>
-    <col width="13.28515625" customWidth="1" min="7" max="7"/>
-    <col width="12" customWidth="1" min="8" max="8"/>
-    <col width="12.5703125" customWidth="1" min="9" max="9"/>
+    <col width="19.7109375" customWidth="1" style="35" min="1" max="1"/>
+    <col width="22.140625" customWidth="1" min="2" max="2"/>
+    <col width="12.28515625" customWidth="1" style="31" min="3" max="3"/>
+    <col width="14.28515625" customWidth="1" style="25" min="4" max="4"/>
+    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="15.28515625" customWidth="1" min="6" max="7"/>
+    <col width="13.28515625" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="12.5703125" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="2">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="33" t="n"/>
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>home</t>
         </is>
       </c>
-      <c r="B1" s="26" t="inlineStr">
+      <c r="C1" s="26" t="inlineStr">
         <is>
           <t>away</t>
         </is>
       </c>
-      <c r="C1" s="20" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>home_win_prob</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>away_win_prob</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>home_avg_score</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>away_avg_score</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>mean_total</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>mean_spread</t>
         </is>
       </c>
-      <c r="I1" s="2" t="inlineStr">
+      <c r="J1" s="33" t="inlineStr">
         <is>
           <t>money_line</t>
         </is>
       </c>
     </row>
     <row r="2" customFormat="1" s="3">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B2" s="27" t="inlineStr">
+      <c r="A2" s="34" t="n"/>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="C2" s="27" t="inlineStr">
+        <is>
+          <t>MIN</t>
+        </is>
+      </c>
+      <c r="D2" s="21" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E2" s="25" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G2" t="n">
+        <v>20.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>41.5</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" s="4">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C3" s="28" t="n"/>
+      <c r="D3" s="22" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+    </row>
+    <row r="4" customFormat="1" s="37">
+      <c r="A4" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C4" s="38" t="n"/>
+      <c r="D4" s="39" t="n"/>
+      <c r="H4" s="36" t="n"/>
+      <c r="I4" s="36" t="n"/>
+    </row>
+    <row r="5" customFormat="1" s="13">
+      <c r="A5" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C5" s="29" t="n"/>
+      <c r="D5" s="23" t="n"/>
+      <c r="H5" s="14" t="n"/>
+      <c r="I5" s="14" t="n"/>
+    </row>
+    <row r="6" customFormat="1" s="11">
+      <c r="A6" s="12" t="n"/>
+      <c r="C6" s="30" t="n"/>
+      <c r="D6" s="24" t="n"/>
+      <c r="H6" s="12" t="n"/>
+      <c r="I6" s="12" t="n"/>
+    </row>
+    <row r="7" customFormat="1" s="3">
+      <c r="A7" s="34" t="n"/>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="C7" s="27" t="inlineStr">
+        <is>
+          <t>WAS</t>
+        </is>
+      </c>
+      <c r="D7" s="21" t="n">
+        <v>0.504</v>
+      </c>
+      <c r="E7" s="25" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="F7" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="G7" t="n">
+        <v>21</v>
+      </c>
+      <c r="H7" t="n">
+        <v>42.3</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" s="4">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C8" s="28" t="n"/>
+      <c r="D8" s="22" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
+    </row>
+    <row r="9" customFormat="1" s="37">
+      <c r="A9" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C9" s="38" t="n"/>
+      <c r="D9" s="39" t="n"/>
+      <c r="H9" s="36" t="n"/>
+      <c r="I9" s="36" t="n"/>
+    </row>
+    <row r="10" customFormat="1" s="13">
+      <c r="A10" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C10" s="29" t="n"/>
+      <c r="D10" s="23" t="n"/>
+      <c r="H10" s="14" t="n"/>
+      <c r="I10" s="14" t="n"/>
+      <c r="J10" s="32" t="n"/>
+    </row>
+    <row r="11" customFormat="1" s="11">
+      <c r="A11" s="12" t="n"/>
+      <c r="C11" s="30" t="n"/>
+      <c r="D11" s="24" t="n"/>
+      <c r="H11" s="12" t="n"/>
+      <c r="I11" s="12" t="n"/>
+    </row>
+    <row r="12" customFormat="1" s="3">
+      <c r="A12" s="34" t="n"/>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="C12" s="27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+      <c r="D12" s="21" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="E12" s="25" t="n">
+        <v>0.212</v>
+      </c>
+      <c r="F12" t="n">
+        <v>28.8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="H12" t="n">
+        <v>45.7</v>
+      </c>
+      <c r="I12" t="n">
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" s="4">
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C13" s="28" t="n"/>
+      <c r="D13" s="22" t="n"/>
+      <c r="H13" s="5" t="n"/>
+      <c r="I13" s="5" t="n"/>
+    </row>
+    <row r="14" customFormat="1" s="37">
+      <c r="A14" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C14" s="38" t="n"/>
+      <c r="D14" s="39" t="n"/>
+      <c r="H14" s="36" t="n"/>
+      <c r="I14" s="36" t="n"/>
+    </row>
+    <row r="15" customFormat="1" s="13">
+      <c r="A15" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C15" s="29" t="n"/>
+      <c r="D15" s="23" t="n"/>
+      <c r="H15" s="14" t="n"/>
+      <c r="I15" s="14" t="n"/>
+    </row>
+    <row r="16" customFormat="1" s="11">
+      <c r="A16" s="12" t="n"/>
+      <c r="C16" s="30" t="n"/>
+      <c r="D16" s="24" t="n"/>
+      <c r="H16" s="12" t="n"/>
+      <c r="I16" s="12" t="n"/>
+    </row>
+    <row r="17" customFormat="1" s="3">
+      <c r="A17" s="34" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DET</t>
+        </is>
+      </c>
+      <c r="C17" s="27" t="inlineStr">
+        <is>
+          <t>CLE</t>
+        </is>
+      </c>
+      <c r="D17" s="21" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="E17" s="25" t="n">
+        <v>0.206</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30.8</v>
+      </c>
+      <c r="G17" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="H17" t="n">
+        <v>49</v>
+      </c>
+      <c r="I17" t="n">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" s="4">
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C18" s="28" t="n"/>
+      <c r="D18" s="22" t="n"/>
+      <c r="I18" s="5" t="n"/>
+    </row>
+    <row r="19" customFormat="1" s="37">
+      <c r="A19" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C19" s="38" t="n"/>
+      <c r="D19" s="39" t="n"/>
+      <c r="I19" s="36" t="n"/>
+    </row>
+    <row r="20" customFormat="1" s="13">
+      <c r="A20" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C20" s="29" t="n"/>
+      <c r="D20" s="23" t="n"/>
+      <c r="I20" s="14" t="n"/>
+    </row>
+    <row r="21" customFormat="1" s="11">
+      <c r="A21" s="12" t="n"/>
+      <c r="C21" s="30" t="n"/>
+      <c r="D21" s="24" t="n"/>
+      <c r="I21" s="12" t="n"/>
+    </row>
+    <row r="22" customFormat="1" s="3">
+      <c r="A22" s="34" t="n"/>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="C22" s="27" t="inlineStr">
+        <is>
+          <t>TEN</t>
+        </is>
+      </c>
+      <c r="D22" s="21" t="n">
+        <v>0.656</v>
+      </c>
+      <c r="E22" s="25" t="n">
+        <v>0.344</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21.4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" s="4">
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C23" s="28" t="n"/>
+      <c r="D23" s="22" t="n"/>
+      <c r="H23" s="5" t="n"/>
+      <c r="I23" s="5" t="n"/>
+    </row>
+    <row r="24" customFormat="1" s="37">
+      <c r="A24" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C24" s="38" t="n"/>
+      <c r="D24" s="39" t="n"/>
+      <c r="H24" s="36" t="n"/>
+      <c r="I24" s="36" t="n"/>
+    </row>
+    <row r="25" customFormat="1" s="13">
+      <c r="A25" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C25" s="29" t="n"/>
+      <c r="D25" s="23" t="n"/>
+      <c r="H25" s="14" t="n"/>
+      <c r="I25" s="14" t="n"/>
+    </row>
+    <row r="26" customFormat="1" s="11">
+      <c r="A26" s="12" t="n"/>
+      <c r="C26" s="30" t="n"/>
+      <c r="D26" s="24" t="n"/>
+      <c r="H26" s="12" t="n"/>
+      <c r="I26" s="12" t="n"/>
+    </row>
+    <row r="27" customFormat="1" s="3">
+      <c r="A27" s="34" t="n"/>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>NE</t>
+        </is>
+      </c>
+      <c r="C27" s="27" t="inlineStr">
         <is>
           <t>CAR</t>
         </is>
       </c>
-      <c r="C2" s="21" t="inlineStr">
-        <is>
-          <t>ATL</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.632</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.368</v>
-      </c>
-      <c r="F2" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="G2" t="n">
-        <v>20.5</v>
-      </c>
-      <c r="H2" t="n">
-        <v>43</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" s="4">
-      <c r="B3" s="28" t="n"/>
-      <c r="C3" s="22" t="n"/>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-    </row>
-    <row r="4" customFormat="1" s="13">
-      <c r="A4" s="14" t="n"/>
-      <c r="B4" s="29" t="n"/>
-      <c r="C4" s="23" t="n"/>
-      <c r="G4" s="14" t="n"/>
-      <c r="H4" s="14" t="n"/>
-    </row>
-    <row r="5" customFormat="1" s="11">
-      <c r="B5" s="30" t="n"/>
-      <c r="C5" s="24" t="n"/>
-      <c r="G5" s="12" t="n"/>
-      <c r="H5" s="12" t="n"/>
-    </row>
-    <row r="6" customFormat="1" s="3">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B6" s="27" t="inlineStr">
-        <is>
-          <t>CLE</t>
-        </is>
-      </c>
-      <c r="C6" s="21" t="inlineStr">
+      <c r="D27" s="21" t="n">
+        <v>0.576</v>
+      </c>
+      <c r="E27" s="25" t="n">
+        <v>0.424</v>
+      </c>
+      <c r="F27" t="n">
+        <v>23.7</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20.8</v>
+      </c>
+      <c r="H27" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" s="4">
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C28" s="28" t="n"/>
+      <c r="D28" s="22" t="n"/>
+      <c r="H28" s="5" t="n"/>
+      <c r="I28" s="5" t="n"/>
+    </row>
+    <row r="29" customFormat="1" s="37">
+      <c r="A29" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C29" s="38" t="n"/>
+      <c r="D29" s="39" t="n"/>
+      <c r="H29" s="36" t="n"/>
+      <c r="I29" s="36" t="n"/>
+    </row>
+    <row r="30" customFormat="1" s="13">
+      <c r="A30" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C30" s="29" t="n"/>
+      <c r="D30" s="23" t="n"/>
+      <c r="H30" s="14" t="n"/>
+      <c r="I30" s="14" t="n"/>
+    </row>
+    <row r="31" customFormat="1" s="11">
+      <c r="A31" s="12" t="n"/>
+      <c r="C31" s="30" t="n"/>
+      <c r="D31" s="24" t="n"/>
+      <c r="H31" s="12" t="n"/>
+      <c r="I31" s="12" t="n"/>
+    </row>
+    <row r="32" customFormat="1" s="3">
+      <c r="A32" s="34" t="n"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NYG</t>
+        </is>
+      </c>
+      <c r="C32" s="27" t="inlineStr">
+        <is>
+          <t>LAC</t>
+        </is>
+      </c>
+      <c r="D32" s="21" t="n">
+        <v>0.342</v>
+      </c>
+      <c r="E32" s="25" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="F32" t="n">
+        <v>19</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25.1</v>
+      </c>
+      <c r="H32" t="n">
+        <v>44</v>
+      </c>
+      <c r="I32" t="n">
+        <v>-6.1</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" s="4">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C33" s="28" t="n"/>
+      <c r="D33" s="22" t="n"/>
+      <c r="H33" s="5" t="n"/>
+      <c r="I33" s="5" t="n"/>
+    </row>
+    <row r="34" customFormat="1" s="37">
+      <c r="A34" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C34" s="38" t="n"/>
+      <c r="D34" s="39" t="n"/>
+      <c r="H34" s="36" t="n"/>
+      <c r="I34" s="36" t="n"/>
+    </row>
+    <row r="35" customFormat="1" s="13">
+      <c r="A35" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C35" s="29" t="n"/>
+      <c r="D35" s="23" t="n"/>
+      <c r="H35" s="14" t="n"/>
+      <c r="I35" s="14" t="n"/>
+    </row>
+    <row r="36" customFormat="1" s="11">
+      <c r="A36" s="12" t="n"/>
+      <c r="C36" s="30" t="n"/>
+      <c r="D36" s="24" t="n"/>
+      <c r="H36" s="12" t="n"/>
+      <c r="I36" s="12" t="n"/>
+    </row>
+    <row r="37" customFormat="1" s="3">
+      <c r="A37" s="34" t="n"/>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TB</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>PHI</t>
+        </is>
+      </c>
+      <c r="D37" s="21" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="E37" s="25" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F37" t="n">
+        <v>24.1</v>
+      </c>
+      <c r="G37" t="n">
+        <v>22.7</v>
+      </c>
+      <c r="H37" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" s="4">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C38" s="28" t="n"/>
+      <c r="D38" s="22" t="n"/>
+      <c r="H38" s="5" t="n"/>
+      <c r="I38" s="5" t="n"/>
+    </row>
+    <row r="39" customFormat="1" s="37">
+      <c r="A39" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C39" s="38" t="n"/>
+      <c r="D39" s="39" t="n"/>
+      <c r="H39" s="36" t="n"/>
+      <c r="I39" s="36" t="n"/>
+    </row>
+    <row r="40" customFormat="1" s="13">
+      <c r="A40" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C40" s="29" t="n"/>
+      <c r="D40" s="23" t="n"/>
+      <c r="H40" s="14" t="n"/>
+      <c r="I40" s="14" t="n"/>
+    </row>
+    <row r="41" customFormat="1" s="11">
+      <c r="A41" s="12" t="n"/>
+      <c r="C41" s="30" t="n"/>
+      <c r="D41" s="24" t="n"/>
+      <c r="H41" s="12" t="n"/>
+      <c r="I41" s="12" t="n"/>
+    </row>
+    <row r="42" customFormat="1" s="3">
+      <c r="A42" s="34" t="n"/>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>LAR</t>
+        </is>
+      </c>
+      <c r="C42" s="27" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="D42" s="21" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="E42" s="25" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F42" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="G42" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H42" t="n">
+        <v>49.3</v>
+      </c>
+      <c r="I42" t="n">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" s="4">
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C43" s="28" t="n"/>
+      <c r="D43" s="22" t="n"/>
+      <c r="H43" s="5" t="n"/>
+      <c r="I43" s="5" t="n"/>
+    </row>
+    <row r="44" customFormat="1" s="37">
+      <c r="A44" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C44" s="38" t="n"/>
+      <c r="D44" s="39" t="n"/>
+      <c r="H44" s="36" t="n"/>
+      <c r="I44" s="36" t="n"/>
+    </row>
+    <row r="45" customFormat="1" s="13">
+      <c r="A45" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C45" s="29" t="n"/>
+      <c r="D45" s="23" t="n"/>
+      <c r="H45" s="14" t="n"/>
+      <c r="I45" s="14" t="n"/>
+    </row>
+    <row r="46" customFormat="1" s="11">
+      <c r="A46" s="12" t="n"/>
+      <c r="C46" s="30" t="n"/>
+      <c r="D46" s="24" t="n"/>
+    </row>
+    <row r="47" customFormat="1" s="3">
+      <c r="A47" s="34" t="n"/>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>SF</t>
+        </is>
+      </c>
+      <c r="C47" s="27" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="D47" s="21" t="n">
+        <v>0.598</v>
+      </c>
+      <c r="E47" s="25" t="n">
+        <v>0.402</v>
+      </c>
+      <c r="F47" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="G47" t="n">
+        <v>21.8</v>
+      </c>
+      <c r="H47" t="n">
+        <v>47.3</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" s="4">
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LINES </t>
+        </is>
+      </c>
+      <c r="C48" s="28" t="n"/>
+      <c r="D48" s="22" t="n"/>
+      <c r="H48" s="5" t="n"/>
+      <c r="I48" s="5" t="n"/>
+    </row>
+    <row r="49" customFormat="1" s="37">
+      <c r="A49" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C49" s="38" t="n"/>
+      <c r="D49" s="39" t="n"/>
+      <c r="H49" s="36" t="n"/>
+      <c r="I49" s="36" t="n"/>
+    </row>
+    <row r="50" customFormat="1" s="13">
+      <c r="A50" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="C50" s="29" t="n"/>
+      <c r="D50" s="23" t="n"/>
+      <c r="H50" s="14" t="n"/>
+      <c r="I50" s="14" t="n"/>
+    </row>
+    <row r="51" customFormat="1" s="11">
+      <c r="A51" s="12" t="n"/>
+      <c r="C51" s="30" t="n"/>
+      <c r="D51" s="24" t="n"/>
+    </row>
+    <row r="52" customFormat="1" s="3">
+      <c r="A52" s="34" t="n"/>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>KC</t>
+        </is>
+      </c>
+      <c r="C52" s="27" t="inlineStr">
+        <is>
+          <t>BAL</t>
+        </is>
+      </c>
+      <c r="D52" s="21" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="E52" s="25" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="F52" t="n">
+        <v>23.2</v>
+      </c>
+      <c r="G52" t="n">
+        <v>26.7</v>
+      </c>
+      <c r="H52" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="I52" t="n">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" s="4">
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C53" s="28" t="n"/>
+      <c r="D53" s="22" t="n"/>
+      <c r="H53" s="5" t="n"/>
+      <c r="I53" s="5" t="n"/>
+    </row>
+    <row r="54" customFormat="1" s="37">
+      <c r="A54" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C54" s="38" t="n"/>
+      <c r="D54" s="39" t="n"/>
+      <c r="H54" s="36" t="n"/>
+      <c r="I54" s="36" t="n"/>
+    </row>
+    <row r="55" customFormat="1" s="13">
+      <c r="A55" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B55" s="14" t="n"/>
+      <c r="C55" s="29" t="n"/>
+      <c r="D55" s="23" t="n"/>
+    </row>
+    <row r="56" customFormat="1" s="11">
+      <c r="A56" s="12" t="n"/>
+      <c r="C56" s="30" t="n"/>
+      <c r="D56" s="24" t="n"/>
+    </row>
+    <row r="57" customFormat="1" s="3">
+      <c r="A57" s="34" t="n"/>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>LV</t>
+        </is>
+      </c>
+      <c r="C57" s="27" t="inlineStr">
+        <is>
+          <t>CHI</t>
+        </is>
+      </c>
+      <c r="D57" s="21" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="E57" s="25" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="F57" t="n">
+        <v>24.2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>24.3</v>
+      </c>
+      <c r="H57" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="58" customFormat="1" s="4">
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C58" s="28" t="n"/>
+      <c r="D58" s="22" t="n"/>
+      <c r="H58" s="5" t="n"/>
+      <c r="I58" s="5" t="n"/>
+    </row>
+    <row r="59" customFormat="1" s="37">
+      <c r="A59" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C59" s="38" t="n"/>
+      <c r="D59" s="39" t="n"/>
+      <c r="H59" s="36" t="n"/>
+      <c r="I59" s="36" t="n"/>
+    </row>
+    <row r="60" customFormat="1" s="13">
+      <c r="A60" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B60" s="14" t="n"/>
+      <c r="C60" s="29" t="n"/>
+      <c r="D60" s="23" t="n"/>
+    </row>
+    <row r="61" customFormat="1" s="11">
+      <c r="A61" s="12" t="n"/>
+      <c r="C61" s="30" t="n"/>
+      <c r="D61" s="24" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="3">
+      <c r="A62" s="34" t="n"/>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="C62" s="27" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0.546</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.454</v>
-      </c>
-      <c r="F6" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="G6" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="H6" t="n">
-        <v>41.9</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" s="4">
-      <c r="B7" s="28" t="n"/>
-      <c r="C7" s="22" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-    </row>
-    <row r="8" customFormat="1" s="13">
-      <c r="A8" s="14" t="n"/>
-      <c r="B8" s="29" t="n"/>
-      <c r="C8" s="23" t="n"/>
-      <c r="G8" s="14" t="n"/>
-      <c r="H8" s="14" t="n"/>
-      <c r="I8" s="32" t="n"/>
-    </row>
-    <row r="9" customFormat="1" s="11">
-      <c r="B9" s="30" t="n"/>
-      <c r="C9" s="24" t="n"/>
-      <c r="G9" s="12" t="n"/>
-      <c r="H9" s="12" t="n"/>
-    </row>
-    <row r="10" customFormat="1" s="3">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B10" s="27" t="inlineStr">
-        <is>
-          <t>JAX</t>
-        </is>
-      </c>
-      <c r="C10" s="21" t="inlineStr">
-        <is>
-          <t>HOU</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>0.618</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.382</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="D62" s="21" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="E62" s="25" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F62" t="n">
         <v>22.1</v>
       </c>
-      <c r="G10" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="H10" t="n">
-        <v>42.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" s="4">
-      <c r="B11" s="28" t="n"/>
-      <c r="C11" s="22" t="n"/>
-      <c r="G11" s="5" t="n"/>
-      <c r="H11" s="5" t="n"/>
-    </row>
-    <row r="12" customFormat="1" s="13">
-      <c r="A12" s="14" t="n"/>
-      <c r="B12" s="29" t="n"/>
-      <c r="C12" s="23" t="n"/>
-      <c r="G12" s="14" t="n"/>
-      <c r="H12" s="14" t="n"/>
-    </row>
-    <row r="13" customFormat="1" s="11">
-      <c r="B13" s="30" t="n"/>
-      <c r="C13" s="24" t="n"/>
-      <c r="G13" s="12" t="n"/>
-      <c r="H13" s="12" t="n"/>
-    </row>
-    <row r="14" customFormat="1" s="3">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B14" s="27" t="inlineStr">
-        <is>
-          <t>MIN</t>
-        </is>
-      </c>
-      <c r="C14" s="21" t="inlineStr">
+      <c r="G62" t="n">
+        <v>27.8</v>
+      </c>
+      <c r="H62" t="n">
+        <v>49.9</v>
+      </c>
+      <c r="I62" t="n">
+        <v>-5.7</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" s="4">
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C63" s="28" t="n"/>
+      <c r="D63" s="22" t="n"/>
+      <c r="H63" s="5" t="n"/>
+      <c r="I63" s="5" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="37">
+      <c r="A64" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C64" s="38" t="n"/>
+      <c r="D64" s="39" t="n"/>
+      <c r="H64" s="36" t="n"/>
+      <c r="I64" s="36" t="n"/>
+    </row>
+    <row r="65" customFormat="1" s="13">
+      <c r="A65" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B65" s="14" t="n"/>
+      <c r="C65" s="29" t="n"/>
+      <c r="D65" s="23" t="n"/>
+    </row>
+    <row r="67" customFormat="1" s="3">
+      <c r="A67" s="34" t="n"/>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="C67" s="27" t="inlineStr">
+        <is>
+          <t>NYJ</t>
+        </is>
+      </c>
+      <c r="D67" s="21" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="E67" s="25" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="F67" t="n">
+        <v>23.9</v>
+      </c>
+      <c r="G67" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="H67" t="n">
+        <v>43.8</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" s="4">
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C68" s="28" t="n"/>
+      <c r="D68" s="22" t="n"/>
+      <c r="H68" s="5" t="n"/>
+      <c r="I68" s="5" t="n"/>
+    </row>
+    <row r="69" customFormat="1" s="37">
+      <c r="A69" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C69" s="38" t="n"/>
+      <c r="D69" s="39" t="n"/>
+      <c r="H69" s="36" t="n"/>
+      <c r="I69" s="36" t="n"/>
+    </row>
+    <row r="70" customFormat="1" s="13">
+      <c r="A70" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B70" s="14" t="n"/>
+      <c r="C70" s="29" t="n"/>
+      <c r="D70" s="23" t="n"/>
+    </row>
+    <row r="72" customFormat="1" s="3">
+      <c r="A72" s="34" t="n"/>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="C72" s="27" t="inlineStr">
         <is>
           <t>CIN</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0.621</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.379</v>
-      </c>
-      <c r="F14" t="n">
-        <v>24</v>
-      </c>
-      <c r="G14" t="n">
-        <v>21.4</v>
-      </c>
-      <c r="H14" t="n">
-        <v>45.4</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="1" s="4">
-      <c r="B15" s="28" t="n"/>
-      <c r="C15" s="22" t="n"/>
-      <c r="H15" s="5" t="n"/>
-    </row>
-    <row r="16" customFormat="1" s="13">
-      <c r="A16" s="14" t="n"/>
-      <c r="B16" s="29" t="n"/>
-      <c r="C16" s="23" t="n"/>
-      <c r="H16" s="14" t="n"/>
-    </row>
-    <row r="17" customFormat="1" s="11">
-      <c r="B17" s="30" t="n"/>
-      <c r="C17" s="24" t="n"/>
-      <c r="H17" s="12" t="n"/>
-    </row>
-    <row r="18" customFormat="1" s="3">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B18" s="27" t="inlineStr">
-        <is>
-          <t>NE</t>
-        </is>
-      </c>
-      <c r="C18" s="21" t="inlineStr">
-        <is>
-          <t>PIT</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>0.459</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.541</v>
-      </c>
-      <c r="F18" t="n">
-        <v>22.8</v>
-      </c>
-      <c r="G18" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="H18" t="n">
-        <v>46.1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" s="4">
-      <c r="B19" s="28" t="n"/>
-      <c r="C19" s="22" t="n"/>
-      <c r="G19" s="5" t="n"/>
-      <c r="H19" s="5" t="n"/>
-    </row>
-    <row r="20" customFormat="1" s="13">
-      <c r="A20" s="14" t="n"/>
-      <c r="B20" s="29" t="n"/>
-      <c r="C20" s="23" t="n"/>
-      <c r="G20" s="14" t="n"/>
-      <c r="H20" s="14" t="n"/>
-    </row>
-    <row r="21" customFormat="1" s="11">
-      <c r="B21" s="30" t="n"/>
-      <c r="C21" s="24" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="12" t="n"/>
-    </row>
-    <row r="22" customFormat="1" s="3">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B22" s="27" t="inlineStr">
-        <is>
-          <t>PHI</t>
-        </is>
-      </c>
-      <c r="C22" s="21" t="inlineStr">
-        <is>
-          <t>LAR</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>0.663</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.337</v>
-      </c>
-      <c r="F22" t="n">
-        <v>24.4</v>
-      </c>
-      <c r="G22" t="n">
-        <v>21.2</v>
-      </c>
-      <c r="H22" t="n">
-        <v>45.6</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3.1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" s="4">
-      <c r="B23" s="28" t="n"/>
-      <c r="C23" s="22" t="n"/>
-      <c r="G23" s="5" t="n"/>
-      <c r="H23" s="5" t="n"/>
-    </row>
-    <row r="24" customFormat="1" s="13">
-      <c r="A24" s="14" t="n"/>
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="23" t="n"/>
-      <c r="G24" s="14" t="n"/>
-      <c r="H24" s="14" t="n"/>
-    </row>
-    <row r="25" customFormat="1" s="11">
-      <c r="B25" s="30" t="n"/>
-      <c r="C25" s="24" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="12" t="n"/>
-    </row>
-    <row r="26" customFormat="1" s="3">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B26" s="27" t="inlineStr">
-        <is>
-          <t>TB</t>
-        </is>
-      </c>
-      <c r="C26" s="21" t="inlineStr">
-        <is>
-          <t>NYJ</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>0.863</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="F26" t="n">
-        <v>28</v>
-      </c>
-      <c r="G26" t="n">
-        <v>19.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>47.7</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8.199999999999999</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" s="4">
-      <c r="B27" s="28" t="n"/>
-      <c r="C27" s="22" t="n"/>
-      <c r="G27" s="5" t="n"/>
-      <c r="H27" s="5" t="n"/>
-    </row>
-    <row r="28" customFormat="1" s="13">
-      <c r="A28" s="14" t="n"/>
-      <c r="B28" s="29" t="n"/>
-      <c r="C28" s="23" t="n"/>
-      <c r="G28" s="14" t="n"/>
-      <c r="H28" s="14" t="n"/>
-    </row>
-    <row r="29" customFormat="1" s="11">
-      <c r="B29" s="30" t="n"/>
-      <c r="C29" s="24" t="n"/>
-      <c r="G29" s="12" t="n"/>
-      <c r="H29" s="12" t="n"/>
-    </row>
-    <row r="30" customFormat="1" s="3">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B30" s="27" t="inlineStr">
-        <is>
-          <t>TEN</t>
-        </is>
-      </c>
-      <c r="C30" s="21" t="inlineStr">
-        <is>
-          <t>IND</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>0.603</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.397</v>
-      </c>
-      <c r="F30" t="n">
-        <v>20.6</v>
-      </c>
-      <c r="G30" t="n">
-        <v>19</v>
-      </c>
-      <c r="H30" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="I30" t="n">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" s="4">
-      <c r="B31" s="28" t="n"/>
-      <c r="C31" s="22" t="n"/>
-      <c r="G31" s="5" t="n"/>
-      <c r="H31" s="5" t="n"/>
-    </row>
-    <row r="32" customFormat="1" s="13">
-      <c r="A32" s="14" t="n"/>
-      <c r="B32" s="29" t="n"/>
-      <c r="C32" s="23" t="n"/>
-      <c r="G32" s="14" t="n"/>
-      <c r="H32" s="14" t="n"/>
-    </row>
-    <row r="33" customFormat="1" s="11">
-      <c r="B33" s="30" t="n"/>
-      <c r="C33" s="24" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="12" t="n"/>
-    </row>
-    <row r="34" customFormat="1" s="3">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B34" s="27" t="inlineStr">
-        <is>
-          <t>WAS</t>
-        </is>
-      </c>
-      <c r="C34" s="21" t="inlineStr">
-        <is>
-          <t>LV</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>0.443</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5570000000000001</v>
-      </c>
-      <c r="F34" t="n">
-        <v>18.8</v>
-      </c>
-      <c r="G34" t="n">
-        <v>21</v>
-      </c>
-      <c r="H34" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="I34" t="n">
-        <v>-2.2</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" s="4">
-      <c r="B35" s="28" t="n"/>
-      <c r="C35" s="22" t="n"/>
-      <c r="G35" s="5" t="n"/>
-      <c r="H35" s="5" t="n"/>
-    </row>
-    <row r="36" customFormat="1" s="13">
-      <c r="A36" s="14" t="n"/>
-      <c r="B36" s="29" t="n"/>
-      <c r="C36" s="23" t="n"/>
-      <c r="G36" s="14" t="n"/>
-      <c r="H36" s="14" t="n"/>
-    </row>
-    <row r="37" customFormat="1" s="11">
-      <c r="B37" s="30" t="n"/>
-      <c r="C37" s="24" t="n"/>
-    </row>
-    <row r="38" customFormat="1" s="3">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B38" s="27" t="inlineStr">
-        <is>
-          <t>LAC</t>
-        </is>
-      </c>
-      <c r="C38" s="21" t="inlineStr">
-        <is>
-          <t>DEN</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>0.573</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.427</v>
-      </c>
-      <c r="F38" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="G38" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>46.3</v>
-      </c>
-      <c r="I38" t="n">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="39" customFormat="1" s="4">
-      <c r="B39" s="28" t="n"/>
-      <c r="C39" s="22" t="n"/>
-      <c r="G39" s="5" t="n"/>
-      <c r="H39" s="5" t="n"/>
-    </row>
-    <row r="40" customFormat="1" s="13">
-      <c r="A40" s="14" t="n"/>
-      <c r="B40" s="29" t="n"/>
-      <c r="C40" s="23" t="n"/>
-      <c r="G40" s="14" t="n"/>
-      <c r="H40" s="14" t="n"/>
-    </row>
-    <row r="41" customFormat="1" s="11">
-      <c r="B41" s="30" t="n"/>
-      <c r="C41" s="24" t="n"/>
-    </row>
-    <row r="42" customFormat="1" s="3">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B42" s="27" t="inlineStr">
-        <is>
-          <t>SEA</t>
-        </is>
-      </c>
-      <c r="C42" s="21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.171</v>
-      </c>
-      <c r="F42" t="n">
-        <v>24</v>
-      </c>
-      <c r="G42" t="n">
-        <v>17.1</v>
-      </c>
-      <c r="H42" t="n">
-        <v>41.1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>6.9</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" s="4">
-      <c r="B43" s="28" t="n"/>
-      <c r="C43" s="22" t="n"/>
-      <c r="G43" s="5" t="n"/>
-      <c r="H43" s="5" t="n"/>
-    </row>
-    <row r="44" customFormat="1" s="13">
-      <c r="A44" s="14" t="n"/>
-      <c r="B44" s="29" t="n"/>
-      <c r="C44" s="23" t="n"/>
-    </row>
-    <row r="45" customFormat="1" s="11">
-      <c r="B45" s="30" t="n"/>
-      <c r="C45" s="24" t="n"/>
-    </row>
-    <row r="46" customFormat="1" s="3">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B46" s="27" t="inlineStr">
-        <is>
-          <t>CHI</t>
-        </is>
-      </c>
-      <c r="C46" s="21" t="inlineStr">
-        <is>
-          <t>DAL</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>0.553</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.447</v>
-      </c>
-      <c r="F46" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="G46" t="n">
-        <v>23.7</v>
-      </c>
-      <c r="H46" t="n">
-        <v>50</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" s="4">
-      <c r="B47" s="28" t="n"/>
-      <c r="C47" s="22" t="n"/>
-      <c r="G47" s="5" t="n"/>
-      <c r="H47" s="5" t="n"/>
-    </row>
-    <row r="48" customFormat="1" s="13">
-      <c r="A48" s="14" t="n"/>
-      <c r="B48" s="29" t="n"/>
-      <c r="C48" s="23" t="n"/>
-    </row>
-    <row r="49" customFormat="1" s="11">
-      <c r="B49" s="30" t="n"/>
-      <c r="C49" s="24" t="n"/>
-    </row>
-    <row r="50" customFormat="1" s="3">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B50" s="27" t="inlineStr">
-        <is>
-          <t>SF</t>
-        </is>
-      </c>
-      <c r="C50" s="21" t="inlineStr">
-        <is>
-          <t>ARI</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>0.584</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.416</v>
-      </c>
-      <c r="F50" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="G50" t="n">
-        <v>21</v>
-      </c>
-      <c r="H50" t="n">
-        <v>45.3</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" s="4">
-      <c r="B51" s="28" t="n"/>
-      <c r="C51" s="22" t="n"/>
-      <c r="G51" s="5" t="n"/>
-      <c r="H51" s="5" t="n"/>
-    </row>
-    <row r="52" customFormat="1" s="13">
-      <c r="A52" s="14" t="n"/>
-      <c r="B52" s="29" t="n"/>
-      <c r="C52" s="23" t="n"/>
-    </row>
-    <row r="54" customFormat="1" s="3">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>GAME</t>
-        </is>
-      </c>
-      <c r="B54" s="27" t="inlineStr">
-        <is>
-          <t>NYG</t>
-        </is>
-      </c>
-      <c r="C54" s="21" t="inlineStr">
-        <is>
-          <t>KC</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>0.384</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.616</v>
-      </c>
-      <c r="F54" t="n">
-        <v>19.4</v>
-      </c>
-      <c r="G54" t="n">
-        <v>23.5</v>
-      </c>
-      <c r="H54" t="n">
-        <v>43</v>
-      </c>
-      <c r="I54" t="n">
-        <v>-4.1</v>
-      </c>
-    </row>
-    <row r="55" customFormat="1" s="4">
-      <c r="B55" s="28" t="n"/>
-      <c r="C55" s="22" t="n"/>
-      <c r="G55" s="5" t="n"/>
-      <c r="H55" s="5" t="n"/>
-    </row>
-    <row r="56" customFormat="1" s="13">
-      <c r="A56" s="14" t="n"/>
-      <c r="B56" s="29" t="n"/>
-      <c r="C56" s="23" t="n"/>
-    </row>
-    <row r="58" customFormat="1" s="3">
-      <c r="B58" s="27" t="n"/>
-      <c r="C58" s="21" t="n"/>
-    </row>
-    <row r="59" customFormat="1" s="4">
-      <c r="B59" s="28" t="n"/>
-      <c r="C59" s="22" t="n"/>
-      <c r="G59" s="5" t="n"/>
-      <c r="H59" s="5" t="n"/>
-    </row>
-    <row r="60" customFormat="1" s="13">
-      <c r="A60" s="14" t="n"/>
-      <c r="B60" s="29" t="n"/>
-      <c r="C60" s="23" t="n"/>
-    </row>
-    <row r="62" customFormat="1" s="3">
-      <c r="B62" s="27" t="n"/>
-      <c r="C62" s="21" t="n"/>
-    </row>
-    <row r="63" customFormat="1" s="4">
-      <c r="B63" s="28" t="n"/>
-      <c r="C63" s="22" t="n"/>
-      <c r="G63" s="5" t="n"/>
-      <c r="H63" s="5" t="n"/>
-    </row>
-    <row r="64" customFormat="1" s="13">
-      <c r="A64" s="14" t="n"/>
-      <c r="B64" s="29" t="n"/>
-      <c r="C64" s="23" t="n"/>
-    </row>
-    <row r="66" customFormat="1" s="3">
-      <c r="B66" s="27" t="n"/>
-      <c r="C66" s="21" t="n"/>
-    </row>
-    <row r="67" customFormat="1" s="4">
-      <c r="B67" s="28" t="n"/>
-      <c r="C67" s="22" t="n"/>
-      <c r="G67" s="5" t="n"/>
-      <c r="H67" s="5" t="n"/>
-    </row>
-    <row r="68" customFormat="1" s="13">
-      <c r="A68" s="14" t="n"/>
-      <c r="B68" s="29" t="n"/>
-      <c r="C68" s="23" t="n"/>
-    </row>
-    <row r="70" customFormat="1" s="3">
-      <c r="B70" s="27" t="n"/>
-      <c r="C70" s="21" t="n"/>
-    </row>
-    <row r="71" customFormat="1" s="4">
-      <c r="B71" s="28" t="n"/>
-      <c r="C71" s="22" t="n"/>
-      <c r="G71" s="5" t="n"/>
-      <c r="H71" s="5" t="n"/>
-    </row>
-    <row r="72" customFormat="1" s="13">
-      <c r="A72" s="14" t="n"/>
-      <c r="B72" s="29" t="n"/>
-      <c r="C72" s="23" t="n"/>
-    </row>
-    <row r="75" customFormat="1" s="3">
-      <c r="A75" s="3" t="inlineStr">
+      <c r="D72" s="21" t="n">
+        <v>0.718</v>
+      </c>
+      <c r="E72" s="25" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="F72" t="n">
+        <v>27.7</v>
+      </c>
+      <c r="G72" t="n">
+        <v>19.1</v>
+      </c>
+      <c r="H72" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="I72" t="n">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="73" customFormat="1" s="4">
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C73" s="28" t="n"/>
+      <c r="D73" s="22" t="n"/>
+      <c r="H73" s="5" t="n"/>
+      <c r="I73" s="5" t="n"/>
+    </row>
+    <row r="74" customFormat="1" s="37">
+      <c r="A74" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C74" s="38" t="n"/>
+      <c r="D74" s="39" t="n"/>
+      <c r="H74" s="36" t="n"/>
+      <c r="I74" s="36" t="n"/>
+    </row>
+    <row r="75" customFormat="1" s="13">
+      <c r="A75" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B75" s="14" t="n"/>
+      <c r="C75" s="29" t="n"/>
+      <c r="D75" s="23" t="n"/>
+    </row>
+    <row r="77" customFormat="1" s="3">
+      <c r="A77" s="34" t="n"/>
+      <c r="C77" s="27" t="n"/>
+      <c r="D77" s="21" t="n"/>
+    </row>
+    <row r="78" customFormat="1" s="4">
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C78" s="28" t="n"/>
+      <c r="D78" s="22" t="n"/>
+      <c r="H78" s="5" t="n"/>
+      <c r="I78" s="5" t="n"/>
+    </row>
+    <row r="79" customFormat="1" s="37">
+      <c r="A79" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C79" s="38" t="n"/>
+      <c r="D79" s="39" t="n"/>
+      <c r="H79" s="36" t="n"/>
+      <c r="I79" s="36" t="n"/>
+    </row>
+    <row r="80" customFormat="1" s="13">
+      <c r="A80" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B80" s="14" t="n"/>
+      <c r="C80" s="29" t="n"/>
+      <c r="D80" s="23" t="n"/>
+    </row>
+    <row r="82" customFormat="1" s="3">
+      <c r="A82" s="34" t="n"/>
+      <c r="C82" s="27" t="n"/>
+      <c r="D82" s="21" t="n"/>
+    </row>
+    <row r="83" customFormat="1" s="4">
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C83" s="28" t="n"/>
+      <c r="D83" s="22" t="n"/>
+      <c r="H83" s="5" t="n"/>
+      <c r="I83" s="5" t="n"/>
+    </row>
+    <row r="84" customFormat="1" s="37">
+      <c r="A84" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C84" s="38" t="n"/>
+      <c r="D84" s="39" t="n"/>
+      <c r="H84" s="36" t="n"/>
+      <c r="I84" s="36" t="n"/>
+    </row>
+    <row r="85" customFormat="1" s="13">
+      <c r="A85" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B85" s="14" t="n"/>
+      <c r="C85" s="29" t="n"/>
+      <c r="D85" s="23" t="n"/>
+    </row>
+    <row r="87" customFormat="1" s="3">
+      <c r="A87" s="34" t="n"/>
+      <c r="C87" s="27" t="n"/>
+      <c r="D87" s="21" t="n"/>
+    </row>
+    <row r="88" customFormat="1" s="4">
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>LINES</t>
+        </is>
+      </c>
+      <c r="C88" s="28" t="n"/>
+      <c r="D88" s="22" t="n"/>
+      <c r="H88" s="5" t="n"/>
+      <c r="I88" s="5" t="n"/>
+    </row>
+    <row r="89" customFormat="1" s="37">
+      <c r="A89" s="36" t="inlineStr">
+        <is>
+          <t>MY BET</t>
+        </is>
+      </c>
+      <c r="C89" s="38" t="n"/>
+      <c r="D89" s="39" t="n"/>
+      <c r="H89" s="36" t="n"/>
+      <c r="I89" s="36" t="n"/>
+    </row>
+    <row r="90" customFormat="1" s="13">
+      <c r="A90" s="14" t="inlineStr">
+        <is>
+          <t>FINAL</t>
+        </is>
+      </c>
+      <c r="B90" s="14" t="n"/>
+      <c r="C90" s="29" t="n"/>
+      <c r="D90" s="23" t="n"/>
+    </row>
+    <row r="93" customFormat="1" s="3">
+      <c r="A93" s="34" t="inlineStr">
         <is>
           <t>OVER/UNDER Week</t>
         </is>
       </c>
-      <c r="B75" s="27" t="n"/>
-      <c r="C75" s="21" t="n"/>
-    </row>
-    <row r="76" customFormat="1" s="4">
-      <c r="A76" s="4" t="inlineStr">
+      <c r="C93" s="27" t="n"/>
+      <c r="D93" s="21" t="n"/>
+    </row>
+    <row r="94" customFormat="1" s="4">
+      <c r="A94" s="5" t="inlineStr">
         <is>
           <t>OVER/UNDER Season</t>
         </is>
       </c>
-      <c r="B76" s="28" t="n"/>
-      <c r="C76" s="22" t="n"/>
-    </row>
-    <row r="77" customFormat="1" s="3">
-      <c r="A77" s="3" t="inlineStr">
+      <c r="C94" s="28" t="n"/>
+      <c r="D94" s="22" t="n"/>
+    </row>
+    <row r="95" customFormat="1" s="3">
+      <c r="A95" s="34" t="inlineStr">
         <is>
           <t>Spread Week</t>
         </is>
       </c>
-      <c r="B77" s="27" t="n"/>
-      <c r="C77" s="21" t="n"/>
-    </row>
-    <row r="78" customFormat="1" s="4">
-      <c r="A78" s="4" t="inlineStr">
+      <c r="C95" s="27" t="n"/>
+      <c r="D95" s="21" t="n"/>
+    </row>
+    <row r="96" customFormat="1" s="4">
+      <c r="A96" s="5" t="inlineStr">
         <is>
           <t>Spread Season</t>
         </is>
       </c>
-      <c r="B78" s="28" t="n"/>
-      <c r="C78" s="22" t="n"/>
-    </row>
-    <row r="79" customFormat="1" s="3">
-      <c r="A79" s="3" t="inlineStr">
+      <c r="C96" s="28" t="n"/>
+      <c r="D96" s="22" t="n"/>
+    </row>
+    <row r="97" customFormat="1" s="3">
+      <c r="A97" s="34" t="inlineStr">
         <is>
           <t>Moneyline Week</t>
         </is>
       </c>
-      <c r="B79" s="27" t="n"/>
-      <c r="C79" s="21" t="n"/>
-    </row>
-    <row r="80" customFormat="1" s="4">
-      <c r="A80" s="4" t="inlineStr">
+      <c r="C97" s="27" t="n"/>
+      <c r="D97" s="21" t="n"/>
+    </row>
+    <row r="98" customFormat="1" s="4">
+      <c r="A98" s="5" t="inlineStr">
         <is>
           <t>Moneyline Season</t>
         </is>
       </c>
-      <c r="B80" s="28" t="n"/>
-      <c r="C80" s="22" t="n"/>
-    </row>
-    <row r="81" customFormat="1" s="3">
-      <c r="A81" s="3" t="inlineStr">
+      <c r="C98" s="28" t="n"/>
+      <c r="D98" s="22" t="n"/>
+    </row>
+    <row r="99" customFormat="1" s="3">
+      <c r="A99" s="34" t="inlineStr">
         <is>
           <t>TOTAL Week</t>
         </is>
       </c>
-      <c r="B81" s="27" t="n"/>
-      <c r="C81" s="21" t="n"/>
-    </row>
-    <row r="82" customFormat="1" s="4">
-      <c r="A82" s="4" t="inlineStr">
+      <c r="C99" s="27" t="n"/>
+      <c r="D99" s="21" t="n"/>
+    </row>
+    <row r="100" customFormat="1" s="4">
+      <c r="A100" s="5" t="inlineStr">
         <is>
           <t>TOTAL Season</t>
         </is>
       </c>
-      <c r="B82" s="28" t="n"/>
-      <c r="C82" s="22" t="n"/>
+      <c r="C100" s="28" t="n"/>
+      <c r="D100" s="22" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
